--- a/data/trans_dic/P55$privada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,05</t>
+          <t>0,0; 42,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,64</t>
+          <t>0,0; 47,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,54 +740,54 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 21,02</t>
+          <t>2,5; 20,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,41</t>
+          <t>0,0; 48,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,6</t>
+          <t>0,0; 14,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,73</t>
+          <t>0,0; 29,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 22,39</t>
+          <t>5,27; 22,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,81</t>
+          <t>0,0; 34,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 17,94</t>
+          <t>2,02; 19,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,27</t>
+          <t>0,0; 21,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 17,48</t>
+          <t>4,72; 17,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,64 +870,64 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,94</t>
+          <t>0,0; 28,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 58,97</t>
+          <t>7,55; 55,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 50,81</t>
+          <t>10,87; 50,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 33,22</t>
+          <t>3,98; 33,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 34,04</t>
+          <t>7,49; 33,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 33,24</t>
+          <t>5,85; 33,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 25,29</t>
+          <t>10,49; 26,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 20,73</t>
+          <t>2,28; 21,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 27,66</t>
+          <t>6,91; 26,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 32,03</t>
+          <t>9,17; 34,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 28,0</t>
+          <t>12,37; 27,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,4</t>
+          <t>0,0; 45,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 47,17</t>
+          <t>6,61; 50,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 51,12</t>
+          <t>5,67; 50,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 26,95</t>
+          <t>5,28; 26,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,2; 49,72</t>
+          <t>16,55; 47,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 37,09</t>
+          <t>4,18; 36,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,16</t>
+          <t>0,0; 39,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 27,03</t>
+          <t>11,48; 27,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 43,72</t>
+          <t>16,38; 44,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 32,51</t>
+          <t>7,82; 32,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 37,05</t>
+          <t>7,47; 35,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 23,79</t>
+          <t>10,79; 23,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,2</t>
+          <t>0,0; 33,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,11</t>
+          <t>0,0; 39,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 43,31</t>
+          <t>5,63; 45,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 41,41</t>
+          <t>10,36; 41,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 41,37</t>
+          <t>12,34; 41,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 22,99</t>
+          <t>2,55; 23,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 45,97</t>
+          <t>7,06; 41,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,65; 32,56</t>
+          <t>15,21; 32,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 33,74</t>
+          <t>9,68; 33,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 21,59</t>
+          <t>5,15; 23,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 36,8</t>
+          <t>9,81; 37,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 31,57</t>
+          <t>15,98; 31,26</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,69</t>
+          <t>0,0; 45,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,54</t>
+          <t>0,0; 61,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,07</t>
+          <t>0,0; 39,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,32</t>
+          <t>0,0; 33,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 41,27</t>
+          <t>7,81; 41,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 34,05</t>
+          <t>4,22; 36,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 28,36</t>
+          <t>6,16; 29,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,64</t>
+          <t>0,0; 25,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 34,61</t>
+          <t>6,21; 35,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 30,73</t>
+          <t>3,72; 30,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 24,65</t>
+          <t>5,91; 25,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 42,53</t>
+          <t>5,37; 43,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,78</t>
+          <t>0,0; 35,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,56</t>
+          <t>0,0; 33,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 31,69</t>
+          <t>10,58; 30,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,82</t>
+          <t>0,0; 23,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 40,62</t>
+          <t>5,11; 44,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,0</t>
+          <t>0,0; 41,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,08; 23,51</t>
+          <t>7,91; 23,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 25,25</t>
+          <t>6,11; 25,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 30,0</t>
+          <t>5,49; 29,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 30,25</t>
+          <t>4,25; 31,94</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 23,74</t>
+          <t>11,12; 23,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,12</t>
+          <t>0,0; 30,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 38,87</t>
+          <t>7,2; 38,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 35,41</t>
+          <t>6,51; 32,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 25,38</t>
+          <t>3,02; 24,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,17; 56,26</t>
+          <t>25,17; 55,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 42,82</t>
+          <t>14,49; 43,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 28,7</t>
+          <t>7,99; 29,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,67; 28,72</t>
+          <t>10,03; 27,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,88; 42,04</t>
+          <t>19,63; 43,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 36,5</t>
+          <t>14,88; 35,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 26,23</t>
+          <t>9,08; 26,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 23,22</t>
+          <t>9,52; 23,61</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,54; 33,39</t>
+          <t>5,89; 32,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,11</t>
+          <t>0,0; 31,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,77</t>
+          <t>0,0; 20,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,24; 40,7</t>
+          <t>10,25; 41,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 30,5</t>
+          <t>7,38; 31,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,08; 28,66</t>
+          <t>7,1; 30,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,53; 31,43</t>
+          <t>8,16; 32,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 32,74</t>
+          <t>16,08; 32,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,11; 27,3</t>
+          <t>9,66; 26,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,57; 24,73</t>
+          <t>6,65; 24,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,64; 24,0</t>
+          <t>6,42; 23,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,69; 32,21</t>
+          <t>16,54; 31,19</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,85</t>
+          <t>7,32; 18,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,93</t>
+          <t>8,3; 20,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,13; 21,11</t>
+          <t>9,49; 21,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 20,72</t>
+          <t>12,06; 20,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,69</t>
+          <t>16,6; 27,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,52</t>
+          <t>12,6; 21,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,35</t>
+          <t>11,22; 21,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,43</t>
+          <t>15,54; 21,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,77; 22,51</t>
+          <t>14,36; 22,51</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,56</t>
+          <t>12,34; 20,02</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11,91; 19,76</t>
+          <t>11,92; 20,04</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,22</t>
+          <t>15,04; 20,29</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3838</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2844</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3684</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5569</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1412</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>677; 5463</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4945</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4254</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7319</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1734; 7413</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6453</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>813; 7902</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7271</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2830; 10652</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3509</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7387</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5966</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9497</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9529</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9474</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13747</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6657</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>961; 7106</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1673; 7791</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>905; 7556</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3169; 14123</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2125; 12239</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5769; 14363</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>887; 8465</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4550; 17169</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4500; 16830</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8706; 19021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3112</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3554</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11017</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7972</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12838</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7472</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6103</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4772</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>951; 7249</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>835; 7468</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1356; 6840</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5917; 16891</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1108; 9751</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6782</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5114; 12103</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7562; 20403</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3199; 13289</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2394; 11505</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7577; 16819</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2684</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3668</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6188</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8388</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8879</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8873</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12056</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4450</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7530</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>785; 6355</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1714; 6843</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3939; 13369</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1005; 9110</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2074; 12141</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5462; 11824</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4384; 15099</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3023; 13613</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4250; 16249</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8383; 16402</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2343</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6272</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3424</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3934</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5541</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3128</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5155</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1973; 10371</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1019; 8873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>995; 4747</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6236</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2125; 12178</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1083; 8934</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1427; 6101</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3803</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2162</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4555</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2169</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5971</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6382</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9230</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>964; 7891</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6440</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5051</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2560; 7485</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6634</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1089; 9406</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9808</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2496; 7335</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2805; 11928</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2160; 11752</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1630; 12241</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6198; 13192</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4490</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15529</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13300</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9319</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9640</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>17298</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>18823</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>13809</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>11898</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5710</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2112; 11429</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1720; 8662</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>701; 5637</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9860; 21923</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7154; 21518</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4498; 16565</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5360; 14551</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11362; 25338</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11713; 27720</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7517; 21654</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7298; 18103</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3658</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8153</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>7726</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9324</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13645</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>13262</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>9824</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>17304</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1913; 10610</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6479</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5121</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1743; 7130</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3508; 14742</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3329; 14409</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4543; 17829</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>9451; 19139</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>7730; 21087</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4504; 16799</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>5163; 19120</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>12534; 23629</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>15010</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20142</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>17621</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>25211</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>50394</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>47273</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>42470</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>65404</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>67415</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>60091</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>85211</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>9267; 23059</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>12129; 29601</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>11525; 26215</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>18949; 32316</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>38331; 64313</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>35222; 61208</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>30009; 58628</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>51023; 70644</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>51325; 80466</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>52537; 85224</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>46339; 77914</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>72994; 98478</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>